--- a/biology/Histoire de la zoologie et de la botanique/Francis_Walker/Francis_Walker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Francis_Walker/Francis_Walker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Walker est un entomologiste britannique, né le 31 juillet 1809 à Southgate et mort le 5 octobre 1874 à Wanstead.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Walker est décrit comme « l’entomologiste le plus industrieux et producteur que la Grande-Bretagne n’a jamais produit » (Essig, 1931). Il voyage beaucoup et collecte de très nombreux spécimens pour le British Museum.
 Parmi les 87 publications que l’on connaît de lui, il faut citer ses catalogues sur les orthoptères, les neuroptères, les homoptères, les diptères, les lépidoptères et les hyménoptères.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1833. Monographia chalciditum (continued from page 384). Ent Mag 1(5): 455-466.
 1834. Monographia chalciditum (continued from p. 39). Ent Mag 2(2): 148-179.
@@ -634,7 +650,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Edward Oliver Essig (1931). A History of Entomology. Mac Millan (New York) : vii + 1029 p.</t>
         </is>
